--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>0.5552855999625</v>
+        <v>1.376134427472</v>
       </c>
       <c r="R2">
-        <v>2.22114239985</v>
+        <v>5.504537709887999</v>
       </c>
       <c r="S2">
-        <v>0.0001577563371689646</v>
+        <v>0.0005096364255585993</v>
       </c>
       <c r="T2">
-        <v>9.067144730247701E-05</v>
+        <v>0.0002572801965196401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.0497528345875</v>
+        <v>0.04737100633066666</v>
       </c>
       <c r="R3">
-        <v>0.2985170075249999</v>
+        <v>0.284226037984</v>
       </c>
       <c r="S3">
-        <v>1.413475326719696E-05</v>
+        <v>1.754333723473824E-05</v>
       </c>
       <c r="T3">
-        <v>1.218605755242171E-05</v>
+        <v>1.328462711358373E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>86.4462493156625</v>
+        <v>97.08857586295466</v>
       </c>
       <c r="R4">
-        <v>518.677495893975</v>
+        <v>582.5314551777279</v>
       </c>
       <c r="S4">
-        <v>0.02455933244974299</v>
+        <v>0.03595569864222285</v>
       </c>
       <c r="T4">
-        <v>0.02117344625860427</v>
+        <v>0.02722731956178155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>2.42573378705625</v>
+        <v>4.472280659784</v>
       </c>
       <c r="R5">
-        <v>9.702935148225</v>
+        <v>17.889122639136</v>
       </c>
       <c r="S5">
-        <v>0.0006891496505921246</v>
+        <v>0.00165626052516846</v>
       </c>
       <c r="T5">
-        <v>0.0003960930974218713</v>
+        <v>0.0008361314302367636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>1.0742584391</v>
+        <v>94.65837696910933</v>
       </c>
       <c r="R6">
-        <v>6.4455506346</v>
+        <v>567.950261814656</v>
       </c>
       <c r="S6">
-        <v>0.0003051962387223982</v>
+        <v>0.03505570090004661</v>
       </c>
       <c r="T6">
-        <v>0.0002631201874945295</v>
+        <v>0.02654579960649027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>124.0318633615875</v>
+        <v>37.24397628246399</v>
       </c>
       <c r="R7">
-        <v>744.1911801695251</v>
+        <v>223.463857694784</v>
       </c>
       <c r="S7">
-        <v>0.03523738497358287</v>
+        <v>0.01379290174510978</v>
       </c>
       <c r="T7">
-        <v>0.03037936306121849</v>
+        <v>0.01044462373642649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>1.014706060056</v>
+        <v>2.641130868168</v>
       </c>
       <c r="R8">
-        <v>6.088236360336</v>
+        <v>15.846785209008</v>
       </c>
       <c r="S8">
-        <v>0.0002882774402008559</v>
+        <v>0.0009781141058713952</v>
       </c>
       <c r="T8">
-        <v>0.0002485339086537226</v>
+        <v>0.0007406732822366404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>0.09091628301599999</v>
@@ -1013,10 +1013,10 @@
         <v>0.818246547144</v>
       </c>
       <c r="S9">
-        <v>2.582926659468515E-05</v>
+        <v>3.366985708399552E-05</v>
       </c>
       <c r="T9">
-        <v>3.340245032682791E-05</v>
+        <v>3.824456176811417E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>157.968319465944</v>
+        <v>186.336181654272</v>
       </c>
       <c r="R10">
-        <v>1421.714875193496</v>
+        <v>1677.025634888448</v>
       </c>
       <c r="S10">
-        <v>0.04487871370942652</v>
+        <v>0.06900757925588141</v>
       </c>
       <c r="T10">
-        <v>0.05803722687656603</v>
+        <v>0.07838360052244117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>4.432686123996</v>
+        <v>8.583375479796</v>
       </c>
       <c r="R11">
-        <v>26.596116743976</v>
+        <v>51.50025287877601</v>
       </c>
       <c r="S11">
-        <v>0.001259323718800791</v>
+        <v>0.003178759800949437</v>
       </c>
       <c r="T11">
-        <v>0.001085706345511572</v>
+        <v>0.002407104080268395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>1.963055674944</v>
+        <v>181.672049149344</v>
       </c>
       <c r="R12">
-        <v>17.667501074496</v>
+        <v>1635.048442344096</v>
       </c>
       <c r="S12">
-        <v>0.0005577030503921386</v>
+        <v>0.06728026848544323</v>
       </c>
       <c r="T12">
-        <v>0.0007212225081790361</v>
+        <v>0.07642160100198128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>226.650724242696</v>
+        <v>71.480091951216</v>
       </c>
       <c r="R13">
-        <v>2039.856518184264</v>
+        <v>643.3208275609439</v>
       </c>
       <c r="S13">
-        <v>0.06439134757975976</v>
+        <v>0.02647187500972462</v>
       </c>
       <c r="T13">
-        <v>0.08327099730555297</v>
+        <v>0.03006859388804602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>0.8136589293056667</v>
+        <v>2.161128625083</v>
       </c>
       <c r="R14">
-        <v>4.881953575834</v>
+        <v>12.966771750498</v>
       </c>
       <c r="S14">
-        <v>0.000231160059617523</v>
+        <v>0.0008003504931440138</v>
       </c>
       <c r="T14">
-        <v>0.0001992910478924114</v>
+        <v>0.0006060624452078324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>0.07290273351788888</v>
+        <v>0.074393050371</v>
       </c>
       <c r="R15">
-        <v>0.6561246016610001</v>
+        <v>0.6695374533389999</v>
       </c>
       <c r="S15">
-        <v>2.071162697207336E-05</v>
+        <v>2.755065749435928E-05</v>
       </c>
       <c r="T15">
-        <v>2.678431029337954E-05</v>
+        <v>3.129394994658365E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>126.6695240528888</v>
+        <v>152.471223942432</v>
       </c>
       <c r="R16">
-        <v>1140.025716475999</v>
+        <v>1372.241015481888</v>
       </c>
       <c r="S16">
-        <v>0.03598674294249535</v>
+        <v>0.05646606030583216</v>
       </c>
       <c r="T16">
-        <v>0.04653811555796823</v>
+        <v>0.06413807239457973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>3.554423086228167</v>
+        <v>7.0234226833635</v>
       </c>
       <c r="R17">
-        <v>21.326538517369</v>
+        <v>42.140536100181</v>
       </c>
       <c r="S17">
-        <v>0.001009809667079482</v>
+        <v>0.002601048240695505</v>
       </c>
       <c r="T17">
-        <v>0.0008705916889671094</v>
+        <v>0.001969634141995579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>1.574108839513778</v>
+        <v>148.654756387164</v>
       </c>
       <c r="R18">
-        <v>14.166979555624</v>
+        <v>1337.892807484476</v>
       </c>
       <c r="S18">
-        <v>0.0004472034658268705</v>
+        <v>0.05505267303472073</v>
       </c>
       <c r="T18">
-        <v>0.0005783242624605157</v>
+        <v>0.0625326489840366</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>181.743652544549</v>
+        <v>58.48921562394599</v>
       </c>
       <c r="R19">
-        <v>1635.692872900941</v>
+        <v>526.4029406155139</v>
       </c>
       <c r="S19">
-        <v>0.05163327291590719</v>
+        <v>0.02166084518288859</v>
       </c>
       <c r="T19">
-        <v>0.06677223402618887</v>
+        <v>0.02460389212463611</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>5.5418461803675</v>
+        <v>3.951164189346</v>
       </c>
       <c r="R20">
-        <v>22.16738472147</v>
+        <v>15.804656757384</v>
       </c>
       <c r="S20">
-        <v>0.001574435488022083</v>
+        <v>0.001463270705284646</v>
       </c>
       <c r="T20">
-        <v>0.0009049167022079443</v>
+        <v>0.0007387042129188989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.4965418810424999</v>
+        <v>0.1360118750686667</v>
       </c>
       <c r="R21">
-        <v>2.979251286255</v>
+        <v>0.816071250412</v>
       </c>
       <c r="S21">
-        <v>0.0001410672785491692</v>
+        <v>5.037051937640621E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001216189587937945</v>
+        <v>3.814288914814243E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>862.7484966465074</v>
+        <v>278.7612143742506</v>
       </c>
       <c r="R22">
-        <v>5176.490979879045</v>
+        <v>1672.567286245504</v>
       </c>
       <c r="S22">
-        <v>0.2451063790204091</v>
+        <v>0.1032361853914582</v>
       </c>
       <c r="T22">
-        <v>0.2113146501212834</v>
+        <v>0.07817521884255019</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>24.20924209684875</v>
+        <v>12.840835048437</v>
       </c>
       <c r="R23">
-        <v>96.836968387395</v>
+        <v>51.363340193748</v>
       </c>
       <c r="S23">
-        <v>0.006877832522747721</v>
+        <v>0.00475546367028607</v>
       </c>
       <c r="T23">
-        <v>0.003953077513923592</v>
+        <v>0.002400704828529823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>10.72128473682</v>
+        <v>271.7836149111013</v>
       </c>
       <c r="R24">
-        <v>64.32770842092</v>
+        <v>1630.701689466608</v>
       </c>
       <c r="S24">
-        <v>0.003045911167047141</v>
+        <v>0.1006521072822348</v>
       </c>
       <c r="T24">
-        <v>0.002625984909643998</v>
+        <v>0.07621843526972849</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>1237.859415516443</v>
+        <v>106.935094725052</v>
       </c>
       <c r="R25">
-        <v>7427.156493098655</v>
+        <v>641.610568350312</v>
       </c>
       <c r="S25">
-        <v>0.3516751872102882</v>
+        <v>0.03960224986345282</v>
       </c>
       <c r="T25">
-        <v>0.3031912895889626</v>
+        <v>0.02998865696164064</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>0.346691364091</v>
+        <v>4.045751162457999</v>
       </c>
       <c r="R26">
-        <v>2.080148184546</v>
+        <v>24.274506974748</v>
       </c>
       <c r="S26">
-        <v>9.849482812232413E-05</v>
+        <v>0.001498299962542428</v>
       </c>
       <c r="T26">
-        <v>8.491578320649018E-05</v>
+        <v>0.001134582094634721</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.03106307473433333</v>
+        <v>0.1392678651904444</v>
       </c>
       <c r="R27">
-        <v>0.279567672609</v>
+        <v>1.253410786714</v>
       </c>
       <c r="S27">
-        <v>8.825002650213102E-06</v>
+        <v>5.157633992285185E-05</v>
       </c>
       <c r="T27">
-        <v>1.141250803917613E-05</v>
+        <v>5.858398843309514E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>53.97252890732567</v>
+        <v>285.4344828655431</v>
       </c>
       <c r="R28">
-        <v>485.752760165931</v>
+        <v>2568.910345789888</v>
       </c>
       <c r="S28">
-        <v>0.01533356613018736</v>
+        <v>0.1057075578335696</v>
       </c>
       <c r="T28">
-        <v>0.0198293931079756</v>
+        <v>0.120069984699879</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>1.5145016467435</v>
+        <v>13.148231972801</v>
       </c>
       <c r="R29">
-        <v>9.087009880461</v>
+        <v>78.889391836806</v>
       </c>
       <c r="S29">
-        <v>0.0004302690947554822</v>
+        <v>0.004869304779579707</v>
       </c>
       <c r="T29">
-        <v>0.0003709498038347069</v>
+        <v>0.00368726300096531</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>0.6707109344506667</v>
+        <v>278.2898465542195</v>
       </c>
       <c r="R30">
-        <v>6.036398410056001</v>
+        <v>2504.608618987976</v>
       </c>
       <c r="S30">
-        <v>0.0001905486119669883</v>
+        <v>0.1030616194434459</v>
       </c>
       <c r="T30">
-        <v>0.0002464177804948982</v>
+        <v>0.1170645441379167</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>77.43902579588101</v>
+        <v>109.4950154078627</v>
       </c>
       <c r="R31">
-        <v>696.951232162929</v>
+        <v>985.4551386707639</v>
       </c>
       <c r="S31">
-        <v>0.02200038514291775</v>
+        <v>0.04055028865999524</v>
       </c>
       <c r="T31">
-        <v>0.02845093449376551</v>
+        <v>0.04605983374099948</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>0.8363861700650002</v>
+        <v>1.644556866659</v>
       </c>
       <c r="R32">
-        <v>5.01831702039</v>
+        <v>9.867341199953998</v>
       </c>
       <c r="S32">
-        <v>0.000237616856365704</v>
+        <v>0.0006090437579500175</v>
       </c>
       <c r="T32">
-        <v>0.0002048576747227662</v>
+        <v>0.0004611961288756728</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>0.07493906338166667</v>
+        <v>0.05661097650522222</v>
       </c>
       <c r="R33">
-        <v>0.674451570435</v>
+        <v>0.5094987885469999</v>
       </c>
       <c r="S33">
-        <v>2.129014717969095E-05</v>
+        <v>2.096525974319491E-05</v>
       </c>
       <c r="T33">
-        <v>2.753245358375035E-05</v>
+        <v>2.381379787959666E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>130.2076758095183</v>
+        <v>116.0262260154915</v>
       </c>
       <c r="R34">
-        <v>1171.869082285665</v>
+        <v>1044.236034139424</v>
       </c>
       <c r="S34">
-        <v>0.03699192993367884</v>
+        <v>0.04296905150917199</v>
       </c>
       <c r="T34">
-        <v>0.04783802503929622</v>
+        <v>0.0488072325480984</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>3.6537057541025</v>
+        <v>5.3446231137355</v>
       </c>
       <c r="R35">
-        <v>21.922234524615</v>
+        <v>32.067738682413</v>
       </c>
       <c r="S35">
-        <v>0.001038015819065551</v>
+        <v>0.001979323069945834</v>
       </c>
       <c r="T35">
-        <v>0.000894909183934091</v>
+        <v>0.001498835060268767</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>1.618077078893334</v>
+        <v>113.1220037255498</v>
       </c>
       <c r="R36">
-        <v>14.56269371004</v>
+        <v>1018.098033529948</v>
       </c>
       <c r="S36">
-        <v>0.0004596948187392373</v>
+        <v>0.04189350435525584</v>
       </c>
       <c r="T36">
-        <v>0.0005944781007292362</v>
+        <v>0.04758555140285772</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>186.820142949915</v>
+        <v>44.50861464859133</v>
       </c>
       <c r="R37">
-        <v>1681.381286549235</v>
+        <v>400.5775318373219</v>
       </c>
       <c r="S37">
-        <v>0.05307550108115768</v>
+        <v>0.01648328159171407</v>
       </c>
       <c r="T37">
-        <v>0.06863732587744741</v>
+        <v>0.01872285585896287</v>
       </c>
     </row>
   </sheetData>
